--- a/几何图像表.xlsx
+++ b/几何图像表.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6127378E-349E-43EF-A55A-F519FFF6232F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DFB08BA2-7AB2-4B62-9F2C-2623A977F991}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概率分布" sheetId="1" r:id="rId1"/>
     <sheet name="三角函数" sheetId="2" r:id="rId2"/>
     <sheet name="指数函数" sheetId="3" r:id="rId3"/>
+    <sheet name="多变量-随机" sheetId="4" r:id="rId4"/>
+    <sheet name="多变量-房价数据" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">三角函数!$A$1:$G$630</definedName>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>期望值μ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,11 +76,50 @@
     <t>y=a^x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房子大小/m^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼层数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格/1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,8 +156,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -23182,6 +23224,719 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'多变量-随机'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>X2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="19050"/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'多变量-随机'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1758.961144980839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1857.8802993832046</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2454.0430266018138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1752.4440368240193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1348.43893586176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2793.1653280223723</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2878.7389446297757</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1174.2869367439339</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1713.8167777065255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'多变量-随机'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.3050607142002368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6120118216145138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9392103510837315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6939008902845401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2589165445809138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4297195883168605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8091566238658765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.281267324906187</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4950212545537691</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E64-462C-ACC2-FD59D9046C73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'多变量-随机'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="19050"/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'多变量-随机'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1758.961144980839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1857.8802993832046</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2454.0430266018138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1752.4440368240193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1348.43893586176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2793.1653280223723</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2878.7389446297757</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1174.2869367439339</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1713.8167777065255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'多变量-随机'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>395844.7278995759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>306438.27785247733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>294188.43281875481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>227265.21746849775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195084.95528871959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>487369.52815959987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>478497.94621885754</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>143671.9253130712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262446.48626475548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-3E64-462C-ACC2-FD59D9046C73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050"/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050"/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050"/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050"/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050"/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050"/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050"/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050"/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050"/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050"/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050"/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050"/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050"/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050"/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050"/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="706950448"/>
+        <c:axId val="706950768"/>
+        <c:axId val="704703304"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="706950448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="706950768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="706950768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="706950448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="704703304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="706950768"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -24411,6 +25166,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{530EF438-15FF-48CD-BA93-310CC895477A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -40927,7 +41723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C373EEDD-3C84-44BE-8BDF-D15155781D56}">
   <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -42765,4 +43561,373 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA26257-5948-4C5D-9251-8EC1838E1C63}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <f ca="1">RAND()*2000+1000</f>
+        <v>1758.961144980839</v>
+      </c>
+      <c r="B2" s="1">
+        <f ca="1">RAND()*3+1</f>
+        <v>1.3050607142002368</v>
+      </c>
+      <c r="C2" s="1">
+        <f ca="1">RAND()*400000+100000</f>
+        <v>395844.7278995759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A15" ca="1" si="0">RAND()*2000+1000</f>
+        <v>1857.8802993832046</v>
+      </c>
+      <c r="B3" s="1">
+        <f ca="1">RAND()*3+1</f>
+        <v>1.6120118216145138</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C15" ca="1" si="1">RAND()*400000+100000</f>
+        <v>306438.27785247733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2454.0430266018138</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B15" ca="1" si="2">RAND()*3+1</f>
+        <v>2.9392103510837315</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>294188.43281875481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1752.4440368240193</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.6939008902845401</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>227265.21746849775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1348.43893586176</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2589165445809138</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>195084.95528871959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2793.1653280223723</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4297195883168605</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>487369.52815959987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2878.7389446297757</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8091566238658765</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>478497.94621885754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1174.2869367439339</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.281267324906187</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>143671.9253130712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1713.8167777065255</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4950212545537691</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>262446.48626475548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1455.0635647723334</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7834009315872792</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>216676.38640081737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2336.536341544534</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.133786041016656</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>129322.61240793172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2296.8279987905698</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.9331148956183326</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>394792.94974702917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2332.4254737927663</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3832674415191475</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>213727.48778858461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2714.9145174451478</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1244336220025795</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>143790.50496954538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE11DCC-C656-4288-868F-F8D7B9F70EBF}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2140</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>45</v>
+      </c>
+      <c r="F2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1416</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1534</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>852</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/几何图像表.xlsx
+++ b/几何图像表.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DFB08BA2-7AB2-4B62-9F2C-2623A977F991}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D849BE97-137B-4802-8C71-29A7D613B6C0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概率分布" sheetId="1" r:id="rId1"/>
     <sheet name="三角函数" sheetId="2" r:id="rId2"/>
     <sheet name="指数函数" sheetId="3" r:id="rId3"/>
-    <sheet name="多变量-随机" sheetId="4" r:id="rId4"/>
+    <sheet name="单变量训练数据" sheetId="4" r:id="rId4"/>
     <sheet name="多变量-房价数据" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">三角函数!$A$1:$G$630</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>期望值μ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,18 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房子大小/m^2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,15 +101,100 @@
     <t>X0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>一级标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分论点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚定不移的走医疗信息化道路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家政策支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大环境利好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十九大报告（三）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社保体系建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康中国战略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十九大报告（五）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列举相关资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术发展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同行竞争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司水平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享的信息：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    鉴定不移的走医疗信息化发展道路，因为环境利好，国家支持！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,13 +209,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -156,9 +245,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -23273,443 +23371,722 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
+    <c:title>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
-        <a:sp3d/>
       </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:surface3DChart>
-        <c:wireframe val="0"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'多变量-随机'!$B$1</c:f>
+              <c:f>单变量训练数据!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>X2</c:v>
+                  <c:v>y</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="19050"/>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'多变量-随机'!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1758.961144980839</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1857.8802993832046</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2454.0430266018138</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1752.4440368240193</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1348.43893586176</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2793.1653280223723</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2878.7389446297757</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1174.2869367439339</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1713.8167777065255</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'多变量-随机'!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.3050607142002368</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6120118216145138</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9392103510837315</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6939008902845401</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2589165445809138</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4297195883168605</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8091566238658765</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.281267324906187</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4950212545537691</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3E64-462C-ACC2-FD59D9046C73}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'多变量-随机'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="19050"/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'多变量-随机'!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1758.961144980839</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1857.8802993832046</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2454.0430266018138</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1752.4440368240193</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1348.43893586176</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2793.1653280223723</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2878.7389446297757</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1174.2869367439339</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1713.8167777065255</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'多变量-随机'!$C$2:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>395844.7278995759</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>306438.27785247733</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>294188.43281875481</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>227265.21746849775</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>195084.95528871959</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>487369.52815959987</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>478497.94621885754</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>143671.9253130712</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>262446.48626475548</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-3E64-462C-ACC2-FD59D9046C73}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:bandFmts>
-          <c:bandFmt>
-            <c:idx val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
               <a:effectLst/>
-              <a:sp3d/>
             </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050"/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050"/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050"/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050"/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050"/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050"/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050"/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050"/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050"/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050"/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="11"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050"/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050"/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="13"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050"/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="14"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050"/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-        </c:bandFmts>
-        <c:axId val="706950448"/>
-        <c:axId val="706950768"/>
-        <c:axId val="704703304"/>
-      </c:surface3DChart>
-      <c:catAx>
-        <c:axId val="706950448"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>单变量训练数据!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>单变量训练数据!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-64.841495929795073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-142.19780402270234</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-83.738091901125784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-47.205871066154316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-82.400801543623203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-46.378464780025382</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-66.858887172442934</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-42.154205757471047</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-94.081679146443165</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-93.923162368718636</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-98.960780132916597</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-59.607232768729915</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-32.554844741533088</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-71.480302124929821</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-63.519681224047304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-114.5548518981995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-104.73189476532981</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-87.532816064719725</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-83.837192682412933</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-21.836700191820924</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-59.697832754376172</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-44.102359244579155</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-88.060339342575645</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-27.220952303071215</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5.4066644291550006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-49.900472338544802</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-11.812477110787086</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-47.171615429683094</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.4342845727105242</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-46.983552564986923</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-17.750162004156749</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-19.308877944261653</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.906212948556615</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-42.206036530537766</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-27.867904981323385</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15.41651363965984</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-4.50816126589379</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-67.335529020842756</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-41.015910597668061</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-59.057730859914699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.6543917258008634</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-58.403009018104406</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-13.542253933855385</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29.85196863355641</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-6.0709432303575497</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.9748184474445338</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.4783689425818665</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-43.449828982282611</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>31.236207278694621</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-28.720497250076434</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-44.105764960895876</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-14.838240022845383</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.3009861389061825</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>46.721972513095764</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-30.576993907895506</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22.75917833867021</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.8867172844585767</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22.729712525511559</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-12.530920565176686</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>22.563575903339157</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>36.383386723446208</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.4243326381623547</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>71.929823134883378</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>59.953145423243043</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>21.041815807903873</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14.21214998078004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73.5306819981042</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>78.23133935102976</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>64.137386828286154</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17.820967472521914</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>54.696685938959476</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>85.09231788240993</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>64.22850597204544</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.67551047072355885</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42.588602099986929</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>27.232475550826891</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>21.650680698042493</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.9585302050115416</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25.494434399420683</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20.306484119485305</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>14.100246613340033</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>104.75925121257427</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26.547889142635782</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>32.699463228412597</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>28.756571732524094</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>76.385360535187743</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>98.906227927171642</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>54.744887536049433</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>35.003251685796144</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>57.247329086787389</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>72.093790479765701</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>125.2974691264933</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99.106619996729791</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>105.13294795348361</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>124.10691120675159</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>62.16249439620087</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44.904665856017317</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>51.253850318965988</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>78.005605628299605</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>121.52433177075227</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>127.12079514902155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB97-4CD5-9B31-6D9E713D805D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="713583800"/>
+        <c:axId val="713581880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="713583800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23729,7 +24106,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -23766,15 +24143,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="706950768"/>
+        <c:crossAx val="713581880"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="706950768"/>
+        <c:axId val="713581880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23794,7 +24168,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -23831,64 +24205,10 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="706950448"/>
+        <c:crossAx val="713583800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:serAx>
-        <c:axId val="704703304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="706950768"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -23897,46 +24217,8 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -24013,6 +24295,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -25084,6 +25406,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -25171,22 +26009,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{530EF438-15FF-48CD-BA93-310CC895477A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE1A03EA-49B1-42C0-AB1C-9716AA701B04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25553,7 +26391,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -43565,245 +44403,930 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA26257-5948-4C5D-9251-8EC1838E1C63}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>-50</v>
+      </c>
+      <c r="B2">
+        <f ca="1">A2*2+RAND()*100-50</f>
+        <v>-64.841495929795073</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-49</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" ca="1" si="0">A3*2+RAND()*100-50</f>
+        <v>-142.19780402270234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-48</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-83.738091901125784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-47</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-47.205871066154316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-46</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>-82.400801543623203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-45</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-46.378464780025382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-44</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-66.858887172442934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-43</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>-42.154205757471047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>-42</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-94.081679146443165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-41</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-93.923162368718636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>-40</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>-98.960780132916597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>-39</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>-59.607232768729915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>-38</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-32.554844741533088</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-37</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-71.480302124929821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>-36</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>-63.519681224047304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-35</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>-114.5548518981995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-34</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>-104.73189476532981</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-33</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>-87.532816064719725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-32</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>-83.837192682412933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-31</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-21.836700191820924</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-30</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>-59.697832754376172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-29</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-44.102359244579155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-28</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>-88.060339342575645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-27</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>-27.220952303071215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-26</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.4066644291550006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>-49.900472338544802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-24</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>-11.812477110787086</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-23</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>-47.171615429683094</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-22</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.4342845727105242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-21</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>-46.983552564986923</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>-20</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>-17.750162004156749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-19</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>-19.308877944261653</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>-18</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.906212948556615</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-17</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>-42.206036530537766</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-16</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>-27.867904981323385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-15</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.41651363965984</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>-14</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.50816126589379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-13</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>-67.335529020842756</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-12</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>-41.015910597668061</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-11</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>-59.057730859914699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-10</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.6543917258008634</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-9</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>-58.403009018104406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-8</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>-13.542253933855385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-7</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.85196863355641</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>-6</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6.0709432303575497</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-5</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.9748184474445338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-4</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.4783689425818665</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-3</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>-43.449828982282611</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>-2</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>31.236207278694621</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-1</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>-28.720497250076434</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="0"/>
+        <v>-44.105764960895876</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="0"/>
+        <v>-14.838240022845383</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.3009861389061825</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="0"/>
+        <v>46.721972513095764</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="0"/>
+        <v>-30.576993907895506</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="0"/>
+        <v>22.75917833867021</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.8867172844585767</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="0"/>
+        <v>22.729712525511559</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="0"/>
+        <v>-12.530920565176686</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="0"/>
+        <v>22.563575903339157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>10</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="0"/>
+        <v>36.383386723446208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>11</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4243326381623547</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B64">
+        <f t="shared" ca="1" si="0"/>
+        <v>71.929823134883378</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B65">
+        <f t="shared" ca="1" si="0"/>
+        <v>59.953145423243043</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <f ca="1">RAND()*2000+1000</f>
-        <v>1758.961144980839</v>
-      </c>
-      <c r="B2" s="1">
-        <f ca="1">RAND()*3+1</f>
-        <v>1.3050607142002368</v>
-      </c>
-      <c r="C2" s="1">
-        <f ca="1">RAND()*400000+100000</f>
-        <v>395844.7278995759</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <f t="shared" ref="A3:A15" ca="1" si="0">RAND()*2000+1000</f>
-        <v>1857.8802993832046</v>
-      </c>
-      <c r="B3" s="1">
-        <f ca="1">RAND()*3+1</f>
-        <v>1.6120118216145138</v>
-      </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3:C15" ca="1" si="1">RAND()*400000+100000</f>
-        <v>306438.27785247733</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="B66">
         <f t="shared" ca="1" si="0"/>
-        <v>2454.0430266018138</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B15" ca="1" si="2">RAND()*3+1</f>
-        <v>2.9392103510837315</v>
-      </c>
-      <c r="C4" s="1">
+        <v>21.041815807903873</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>15</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B102" ca="1" si="1">A67*2+RAND()*100-50</f>
+        <v>14.21214998078004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>16</v>
+      </c>
+      <c r="B68">
         <f t="shared" ca="1" si="1"/>
-        <v>294188.43281875481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1752.4440368240193</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.6939008902845401</v>
-      </c>
-      <c r="C5" s="1">
+        <v>73.5306819981042</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>17</v>
+      </c>
+      <c r="B69">
         <f t="shared" ca="1" si="1"/>
-        <v>227265.21746849775</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1348.43893586176</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.2589165445809138</v>
-      </c>
-      <c r="C6" s="1">
+        <v>78.23133935102976</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>18</v>
+      </c>
+      <c r="B70">
         <f t="shared" ca="1" si="1"/>
-        <v>195084.95528871959</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2793.1653280223723</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.4297195883168605</v>
-      </c>
-      <c r="C7" s="1">
+        <v>64.137386828286154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>19</v>
+      </c>
+      <c r="B71">
         <f t="shared" ca="1" si="1"/>
-        <v>487369.52815959987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2878.7389446297757</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.8091566238658765</v>
-      </c>
-      <c r="C8" s="1">
+        <v>17.820967472521914</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>20</v>
+      </c>
+      <c r="B72">
         <f t="shared" ca="1" si="1"/>
-        <v>478497.94621885754</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1174.2869367439339</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.281267324906187</v>
-      </c>
-      <c r="C9" s="1">
+        <v>54.696685938959476</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>21</v>
+      </c>
+      <c r="B73">
         <f t="shared" ca="1" si="1"/>
-        <v>143671.9253130712</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1713.8167777065255</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.4950212545537691</v>
-      </c>
-      <c r="C10" s="1">
+        <v>85.09231788240993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>22</v>
+      </c>
+      <c r="B74">
         <f t="shared" ca="1" si="1"/>
-        <v>262446.48626475548</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1455.0635647723334</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7834009315872792</v>
-      </c>
-      <c r="C11" s="1">
+        <v>64.22850597204544</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>23</v>
+      </c>
+      <c r="B75">
         <f t="shared" ca="1" si="1"/>
-        <v>216676.38640081737</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2336.536341544534</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.133786041016656</v>
-      </c>
-      <c r="C12" s="1">
+        <v>-0.67551047072355885</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>24</v>
+      </c>
+      <c r="B76">
         <f t="shared" ca="1" si="1"/>
-        <v>129322.61240793172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2296.8279987905698</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.9331148956183326</v>
-      </c>
-      <c r="C13" s="1">
+        <v>42.588602099986929</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>25</v>
+      </c>
+      <c r="B77">
         <f t="shared" ca="1" si="1"/>
-        <v>394792.94974702917</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2332.4254737927663</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.3832674415191475</v>
-      </c>
-      <c r="C14" s="1">
+        <v>27.232475550826891</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>26</v>
+      </c>
+      <c r="B78">
         <f t="shared" ca="1" si="1"/>
-        <v>213727.48778858461</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2714.9145174451478</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.1244336220025795</v>
-      </c>
-      <c r="C15" s="1">
+        <v>21.650680698042493</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>27</v>
+      </c>
+      <c r="B79">
         <f t="shared" ca="1" si="1"/>
-        <v>143790.50496954538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+        <v>6.9585302050115416</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>28</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="1"/>
+        <v>25.494434399420683</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>29</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="1"/>
+        <v>20.306484119485305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>30</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="1"/>
+        <v>14.100246613340033</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>31</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ca="1" si="1"/>
+        <v>104.75925121257427</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>32</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="1"/>
+        <v>26.547889142635782</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>33</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="1"/>
+        <v>32.699463228412597</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>34</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="1"/>
+        <v>28.756571732524094</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>35</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="1"/>
+        <v>76.385360535187743</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>36</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="1"/>
+        <v>98.906227927171642</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>37</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="1"/>
+        <v>54.744887536049433</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>38</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="1"/>
+        <v>35.003251685796144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>39</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="1"/>
+        <v>57.247329086787389</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>40</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="1"/>
+        <v>72.093790479765701</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>41</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="1"/>
+        <v>125.2974691264933</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>42</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="1"/>
+        <v>99.106619996729791</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>43</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="1"/>
+        <v>105.13294795348361</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>44</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="1"/>
+        <v>124.10691120675159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>45</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="1"/>
+        <v>62.16249439620087</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>46</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="1"/>
+        <v>44.904665856017317</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>47</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ca="1" si="1"/>
+        <v>51.253850318965988</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>48</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="1"/>
+        <v>78.005605628299605</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>49</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="1"/>
+        <v>121.52433177075227</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>50</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ca="1" si="1"/>
+        <v>127.12079514902155</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -43817,8 +45340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE11DCC-C656-4288-868F-F8D7B9F70EBF}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -43828,22 +45351,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -43930,4 +45453,159 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5EDA58-FAB9-4802-9EC5-4DE7C3AC53A7}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="14.4140625" customWidth="1"/>
+    <col min="3" max="3" width="19.58203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>